--- a/output/Results_hybrid.xlsx
+++ b/output/Results_hybrid.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="711">
   <si>
     <t>Tipo</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Brûlée Cream</t>
   </si>
   <si>
+    <t>Chocolate pizza</t>
+  </si>
+  <si>
     <t>apple pie</t>
   </si>
   <si>
@@ -196,6 +199,21 @@
     <t>325094</t>
   </si>
   <si>
+    <t>18670</t>
+  </si>
+  <si>
+    <t>198737</t>
+  </si>
+  <si>
+    <t>412788</t>
+  </si>
+  <si>
+    <t>281821</t>
+  </si>
+  <si>
+    <t>356896</t>
+  </si>
+  <si>
     <t>224969</t>
   </si>
   <si>
@@ -836,6 +854,21 @@
   </si>
   <si>
     <t>creme brulee for two</t>
+  </si>
+  <si>
+    <t>chocolate   pizza</t>
+  </si>
+  <si>
+    <t>chocolate pizza</t>
+  </si>
+  <si>
+    <t>valentine brownie pizza</t>
+  </si>
+  <si>
+    <t>chocolate chip pizza</t>
+  </si>
+  <si>
+    <t>mr  food chocolate chip cookie pizza</t>
   </si>
   <si>
     <t>apple pie dessert</t>
@@ -1652,6 +1685,184 @@
 sprinkle 1 / 2 tablespoon of sugar evenly over each ramekin 
 and torch in slow 
 steady circles until sugar caramelizes
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chocolate   pizza
+Recipe posted on: 2002-02-02
+Tags: 30-minutes-or-less, time-to-make, course, main-ingredient, cuisine, preparation, occasion, north-american, desserts, fruit, american, kid-friendly, candy, chocolate, nuts, stove-top, dietary, equipment
+Description: a real kid pleaser. the best of both worlds--"pizza" and chocolate!
+This recipe takes 20 minutes to be done.
+For this recipe you will need the ingredients: 
+chocolate chips
+white almond bark
+miniature marshmallows
+crisp rice cereal
+peanuts
+red maraschino cherries
+green maraschino cherries
+flaked coconut
+oil
+The 9 steps to make this recipe are: 
+melt chocolate chips with 14 ounces of almond bark in large saucepan over low heat 
+stirring until smooth
+remove from heat
+stir in marshmallows 
+cereal and peanuts
+pour onto a 12-inch greased pizza pan
+top with cherries and sprinkle with coconut
+melt remaining 2 ounces almond bark with oil over low heat 
+stirring until smooth
+drizzle over coconut
+chill until firm
+can be stored at room temperature once firm
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chocolate pizza
+Recipe posted on: 2006-12-02
+Tags: 60-minutes-or-less, time-to-make, course, main-ingredient, cuisine, preparation, pies-and-tarts, desserts, easy, european, crusts-pastry-dough-2, italian, chocolate
+Description: chocolate and pizza mmm. recipe from giada.
+This recipe takes 40 minutes to be done.
+For this recipe you will need the ingredients: 
+pizza dough
+butter
+chocolate hazelnut spread
+semi-sweet chocolate chips
+milk chocolate chips
+white chocolate chips
+hazelnuts
+The 10 steps to make this recipe are: 
+position the oven rack on the bottom of the oven and preheat to 450f
+line a heavy large baking sheet with parchment paper
+roll out the dough to a 9-inch-diameter round
+transfer the dough to the prepared baking sheet
+using your fingers 
+make indentations all over the dough
+brush the dough with butter 
+then bake until the crust is crisp and pale golden brown 
+about 20 minutes
+immediately spread the chocolate-hazelnut spread over the pizza then sprinkle all the chocolate chips over
+bake just until the chocolate begins to melt 
+about 1 minute
+sprinkle the hazelnuts over the pizza
+cut into wedges and serve
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valentine brownie pizza
+Recipe posted on: 2010-02-12
+Tags: 30-minutes-or-less, time-to-make, course, main-ingredient, preparation, occasion, desserts, easy, holiday-event, cookies-and-brownies, chocolate, valentines-day, 3-steps-or-less
+Description: although you can certainly make this at any time of the year, i always make at valentine's using valentine m&amp;m's.  originally from toh, it's a favorite of mine.
+This recipe takes 30 minutes to be done.
+For this recipe you will need the ingredients: 
+butter
+unsweetened baking chocolate
+sugar
+flour
+eggs
+"confectioners sugar"
+creamy peanut butter
+vanilla extract
+milk
+"m&amp;m"
+pecans
+coconut
+The 8 steps to make this recipe are: 
+in small saucepan combine butter 
+chocolate and sugar
+stir over low heat till butter and chocolate are melted and sugar is dissolved
+remove from heat and stir in flour till combined
+add eggs and beat till mixed
+pour into greased 12" pizza pan and bake at 350 for 15 minutes or till it tests done
+cool
+in bowl 
+combine confectioners sugar 
+peanut butter 
+vanilla and enough milk to make a good spreading consistency
+"spread over crust 
+top with nuts 
+coconut and m&amp;ms"
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chocolate chip pizza
+Recipe posted on: 2008-01-27
+Tags: 30-minutes-or-less, time-to-make, course, preparation, occasion, desserts, cookies-and-brownies, novelty
+Description: one of the best weird ideas i have ever had. you have to try it to understand.
+This recipe takes 30 minutes to be done.
+For this recipe you will need the ingredients: 
+pizza dough
+refrigerated chocolate chip cookie dough
+butter
+powdered sugar
+vanilla extract
+water
+The 10 steps to make this recipe are: 
+preheat oven to 375f
+follow the directions on the tube of raw pizza dough as far as the prep of the dough
+once the dough is ready to be topped you need to spread melted butter over the entire pizza
+open the package of pre-made chocolate ship cookie dough
+spread the cookie dough over the crust except for the edges
+bake for 18 to 20 minutes or until the edges are firm but not brown
+remove from oven and cool in a safe place
+in a small bowl combine powered sugar 
+1 tablespoon of vanilla 
+water and mix until the consistency of icing
+drizzle the icing over the pizza with a spoon
+serve to those who are worthy
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mr  food chocolate chip cookie pizza
+Recipe posted on: 2009-02-20
+Tags: 30-minutes-or-less, time-to-make, course, preparation, occasion, for-large-groups, desserts, kid-friendly, cookies-and-brownies, dietary, gifts, number-of-servings
+Description: i finally found this recipe after looking for it for years!  i used to make this for my boys on their birthdays but switched to cinnamon rolls after i misplaced the recipe.  i top it with re-whipped store bought frosting and mini m&amp;m's.  printed in the winter 1998 issue of mr. food's easycooking and posted here so i won't lose it again!
+This recipe takes 30 minutes to be done.
+For this recipe you will need the ingredients: 
+brown sugar
+granulated sugar
+butter
+egg
+vanilla extract
+flour
+baking soda
+semi-sweet chocolate chips
+frosting
+walnuts
+coconut
+candy
+candy sprinkles
+The 12 steps to make this recipe are: 
+preheat oven to 350 degrees
+in a large bowl 
+beat together brown &amp; white sugars 
+butter 
+egg and vanilla until creamy
+add flour and baking soda 
+mixing well
+the dough will be stiff
+stir in chocolate chips
+spread evenly on a 12 inch pizza pan
+bake 12-15 minutes or until golden brown
+it looked a bit undercooked 
+but after cooling 
+it made a nice chewy cookie
+cool completely
+spread frosting over top of cookie 
+leaving a 1 / 4 inch border around the edges
+sprinkle with optional ingredients if desired
+cut into 16 wedges
 The mean rating for this recipe is: No reviews
 User reviews: 
 </t>
@@ -9747,7 +9958,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F216"/>
+  <dimension ref="A1:F221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9784,13 +9995,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F2" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9804,13 +10015,13 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F3" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -9824,13 +10035,13 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F4" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -9844,13 +10055,13 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F5" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9864,13 +10075,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F6" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9884,13 +10095,13 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F7" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9904,13 +10115,13 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F8" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9924,13 +10135,13 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F9" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -9944,13 +10155,13 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F10" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -9964,13 +10175,13 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F11" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -9984,13 +10195,13 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F12" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -10004,13 +10215,13 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F13" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -10024,13 +10235,13 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F14" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -10044,13 +10255,13 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F15" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -10064,13 +10275,13 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F16" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -10084,13 +10295,13 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F17" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -10104,13 +10315,13 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F18" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -10124,13 +10335,13 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F19" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -10144,13 +10355,13 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F20" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -10164,13 +10375,13 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F21" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -10184,13 +10395,13 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F22" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -10204,13 +10415,13 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F23" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -10224,13 +10435,13 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F24" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -10244,13 +10455,13 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F25" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -10264,13 +10475,13 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F26" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -10284,13 +10495,13 @@
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F27" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -10304,13 +10515,13 @@
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F28" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -10324,13 +10535,13 @@
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F29" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -10344,13 +10555,13 @@
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F30" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -10364,13 +10575,13 @@
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F31" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -10384,13 +10595,13 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>305</v>
       </c>
       <c r="F32" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -10404,13 +10615,13 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F33" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -10424,13 +10635,13 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E34" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="F34" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -10444,13 +10655,13 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F35" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -10464,13 +10675,13 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="F36" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -10484,13 +10695,13 @@
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>303</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -10504,13 +10715,13 @@
         <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E38" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F38" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -10524,13 +10735,13 @@
         <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E39" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F39" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -10544,13 +10755,13 @@
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E40" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F40" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -10564,13 +10775,13 @@
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E41" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F41" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -10584,13 +10795,13 @@
         <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E42" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F42" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -10604,13 +10815,13 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E43" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F43" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -10624,13 +10835,13 @@
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E44" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F44" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -10644,13 +10855,13 @@
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E45" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="F45" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -10664,13 +10875,13 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E46" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F46" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -10684,13 +10895,13 @@
         <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E47" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F47" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -10704,13 +10915,13 @@
         <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E48" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F48" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -10724,13 +10935,13 @@
         <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E49" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F49" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -10744,13 +10955,13 @@
         <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E50" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F50" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -10764,13 +10975,13 @@
         <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F51" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -10784,13 +10995,13 @@
         <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E52" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F52" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -10804,13 +11015,13 @@
         <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E53" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F53" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -10824,13 +11035,13 @@
         <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E54" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F54" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -10844,13 +11055,13 @@
         <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E55" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="F55" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -10864,13 +11075,13 @@
         <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E56" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F56" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -10884,13 +11095,13 @@
         <v>23</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
-        <v>23</v>
+        <v>329</v>
       </c>
       <c r="F57" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -10904,13 +11115,13 @@
         <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="F58" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -10924,13 +11135,13 @@
         <v>23</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F59" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -10944,13 +11155,13 @@
         <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E60" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="F60" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -10964,13 +11175,13 @@
         <v>23</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E61" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="F61" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -10984,13 +11195,13 @@
         <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E62" t="s">
-        <v>327</v>
+        <v>24</v>
       </c>
       <c r="F62" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -11004,13 +11215,13 @@
         <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E63" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F63" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -11024,13 +11235,13 @@
         <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E64" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F64" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -11044,13 +11255,13 @@
         <v>24</v>
       </c>
       <c r="D65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E65" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F65" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -11064,13 +11275,13 @@
         <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E66" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="F66" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -11084,13 +11295,13 @@
         <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E67" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="F67" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -11104,13 +11315,13 @@
         <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E68" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="F68" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -11124,13 +11335,13 @@
         <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E69" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F69" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -11144,13 +11355,13 @@
         <v>25</v>
       </c>
       <c r="D70" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E70" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F70" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -11164,13 +11375,13 @@
         <v>25</v>
       </c>
       <c r="D71" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E71" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F71" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -11184,13 +11395,13 @@
         <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E72" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F72" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -11204,13 +11415,13 @@
         <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E73" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F73" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -11224,13 +11435,13 @@
         <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E74" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F74" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -11244,13 +11455,13 @@
         <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E75" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F75" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -11264,13 +11475,13 @@
         <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E76" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F76" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -11284,13 +11495,13 @@
         <v>27</v>
       </c>
       <c r="D77" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E77" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F77" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -11304,13 +11515,13 @@
         <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E78" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F78" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -11324,13 +11535,13 @@
         <v>27</v>
       </c>
       <c r="D79" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E79" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F79" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -11344,13 +11555,13 @@
         <v>27</v>
       </c>
       <c r="D80" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E80" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F80" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -11364,13 +11575,13 @@
         <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E81" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F81" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -11384,13 +11595,13 @@
         <v>28</v>
       </c>
       <c r="D82" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E82" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F82" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -11404,13 +11615,13 @@
         <v>28</v>
       </c>
       <c r="D83" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E83" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="F83" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -11424,13 +11635,13 @@
         <v>28</v>
       </c>
       <c r="D84" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E84" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="F84" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -11444,13 +11655,13 @@
         <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E85" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F85" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -11464,113 +11675,113 @@
         <v>28</v>
       </c>
       <c r="D86" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E86" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="F86" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>29</v>
       </c>
       <c r="D87" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E87" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F87" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>29</v>
       </c>
       <c r="D88" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E88" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F88" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>29</v>
       </c>
       <c r="D89" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E89" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F89" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E90" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F90" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>29</v>
       </c>
       <c r="D91" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E91" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F91" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -11584,13 +11795,13 @@
         <v>30</v>
       </c>
       <c r="D92" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E92" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F92" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -11604,13 +11815,13 @@
         <v>30</v>
       </c>
       <c r="D93" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E93" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F93" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -11624,13 +11835,13 @@
         <v>30</v>
       </c>
       <c r="D94" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E94" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F94" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -11644,13 +11855,13 @@
         <v>30</v>
       </c>
       <c r="D95" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E95" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="F95" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -11664,13 +11875,13 @@
         <v>30</v>
       </c>
       <c r="D96" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E96" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F96" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -11684,13 +11895,13 @@
         <v>31</v>
       </c>
       <c r="D97" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E97" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F97" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -11704,13 +11915,13 @@
         <v>31</v>
       </c>
       <c r="D98" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E98" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F98" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -11724,13 +11935,13 @@
         <v>31</v>
       </c>
       <c r="D99" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E99" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F99" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -11744,13 +11955,13 @@
         <v>31</v>
       </c>
       <c r="D100" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E100" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F100" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -11764,13 +11975,13 @@
         <v>31</v>
       </c>
       <c r="D101" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E101" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F101" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -11784,13 +11995,13 @@
         <v>32</v>
       </c>
       <c r="D102" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E102" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="F102" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -11804,13 +12015,13 @@
         <v>32</v>
       </c>
       <c r="D103" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E103" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="F103" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -11824,13 +12035,13 @@
         <v>32</v>
       </c>
       <c r="D104" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E104" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F104" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -11844,13 +12055,13 @@
         <v>32</v>
       </c>
       <c r="D105" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E105" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="F105" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -11864,13 +12075,13 @@
         <v>32</v>
       </c>
       <c r="D106" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E106" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F106" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -11884,13 +12095,13 @@
         <v>33</v>
       </c>
       <c r="D107" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E107" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F107" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -11904,13 +12115,13 @@
         <v>33</v>
       </c>
       <c r="D108" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E108" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="F108" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -11924,13 +12135,13 @@
         <v>33</v>
       </c>
       <c r="D109" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E109" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F109" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -11944,13 +12155,13 @@
         <v>33</v>
       </c>
       <c r="D110" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E110" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F110" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -11964,13 +12175,13 @@
         <v>33</v>
       </c>
       <c r="D111" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E111" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F111" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -11978,19 +12189,19 @@
         <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
         <v>34</v>
       </c>
       <c r="D112" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E112" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F112" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -11998,19 +12209,19 @@
         <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
         <v>34</v>
       </c>
       <c r="D113" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E113" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F113" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -12018,19 +12229,19 @@
         <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
         <v>34</v>
       </c>
       <c r="D114" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E114" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="F114" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -12038,19 +12249,19 @@
         <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
         <v>34</v>
       </c>
       <c r="D115" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E115" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F115" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -12058,19 +12269,19 @@
         <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
         <v>34</v>
       </c>
       <c r="D116" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E116" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F116" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -12084,13 +12295,13 @@
         <v>35</v>
       </c>
       <c r="D117" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E117" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="F117" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -12104,13 +12315,13 @@
         <v>35</v>
       </c>
       <c r="D118" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E118" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="F118" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -12124,13 +12335,13 @@
         <v>35</v>
       </c>
       <c r="D119" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E119" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F119" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -12144,13 +12355,13 @@
         <v>35</v>
       </c>
       <c r="D120" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E120" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F120" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -12164,13 +12375,13 @@
         <v>35</v>
       </c>
       <c r="D121" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E121" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="F121" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -12178,19 +12389,19 @@
         <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C122" t="s">
         <v>36</v>
       </c>
       <c r="D122" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E122" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F122" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -12198,19 +12409,19 @@
         <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C123" t="s">
         <v>36</v>
       </c>
       <c r="D123" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E123" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F123" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -12218,19 +12429,19 @@
         <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C124" t="s">
         <v>36</v>
       </c>
       <c r="D124" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E124" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F124" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -12238,19 +12449,19 @@
         <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C125" t="s">
         <v>36</v>
       </c>
       <c r="D125" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E125" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F125" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -12258,19 +12469,19 @@
         <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C126" t="s">
         <v>36</v>
       </c>
       <c r="D126" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E126" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F126" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -12278,19 +12489,19 @@
         <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
         <v>37</v>
       </c>
       <c r="D127" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E127" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="F127" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -12298,19 +12509,19 @@
         <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
         <v>37</v>
       </c>
       <c r="D128" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E128" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="F128" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -12318,19 +12529,19 @@
         <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
         <v>37</v>
       </c>
       <c r="D129" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E129" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F129" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -12338,19 +12549,19 @@
         <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
         <v>37</v>
       </c>
       <c r="D130" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E130" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F130" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -12358,19 +12569,19 @@
         <v>7</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
         <v>37</v>
       </c>
       <c r="D131" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E131" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F131" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -12378,19 +12589,19 @@
         <v>7</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C132" t="s">
         <v>38</v>
       </c>
       <c r="D132" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E132" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="F132" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -12398,19 +12609,19 @@
         <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C133" t="s">
         <v>38</v>
       </c>
       <c r="D133" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E133" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="F133" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -12418,19 +12629,19 @@
         <v>7</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C134" t="s">
         <v>38</v>
       </c>
       <c r="D134" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E134" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="F134" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -12438,19 +12649,19 @@
         <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C135" t="s">
         <v>38</v>
       </c>
       <c r="D135" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E135" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="F135" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -12458,19 +12669,19 @@
         <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C136" t="s">
         <v>38</v>
       </c>
       <c r="D136" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E136" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F136" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -12478,19 +12689,19 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C137" t="s">
         <v>39</v>
       </c>
       <c r="D137" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E137" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="F137" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -12498,19 +12709,19 @@
         <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s">
         <v>39</v>
       </c>
       <c r="D138" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E138" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F138" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -12518,19 +12729,19 @@
         <v>7</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
         <v>39</v>
       </c>
       <c r="D139" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E139" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="F139" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -12538,19 +12749,19 @@
         <v>7</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
         <v>39</v>
       </c>
       <c r="D140" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E140" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="F140" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -12558,19 +12769,19 @@
         <v>7</v>
       </c>
       <c r="B141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C141" t="s">
         <v>39</v>
       </c>
       <c r="D141" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E141" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="F141" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -12578,19 +12789,19 @@
         <v>7</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C142" t="s">
         <v>40</v>
       </c>
       <c r="D142" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E142" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="F142" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -12598,19 +12809,19 @@
         <v>7</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C143" t="s">
         <v>40</v>
       </c>
       <c r="D143" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E143" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F143" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -12618,19 +12829,19 @@
         <v>7</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C144" t="s">
         <v>40</v>
       </c>
       <c r="D144" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E144" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="F144" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -12638,19 +12849,19 @@
         <v>7</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C145" t="s">
         <v>40</v>
       </c>
       <c r="D145" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E145" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="F145" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -12658,19 +12869,19 @@
         <v>7</v>
       </c>
       <c r="B146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C146" t="s">
         <v>40</v>
       </c>
       <c r="D146" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E146" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F146" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -12678,19 +12889,19 @@
         <v>7</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C147" t="s">
         <v>41</v>
       </c>
       <c r="D147" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E147" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F147" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -12698,19 +12909,19 @@
         <v>7</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C148" t="s">
         <v>41</v>
       </c>
       <c r="D148" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E148" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="F148" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -12718,19 +12929,19 @@
         <v>7</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C149" t="s">
         <v>41</v>
       </c>
       <c r="D149" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E149" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F149" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -12738,19 +12949,19 @@
         <v>7</v>
       </c>
       <c r="B150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
         <v>41</v>
       </c>
       <c r="D150" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E150" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="F150" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -12758,19 +12969,19 @@
         <v>7</v>
       </c>
       <c r="B151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C151" t="s">
         <v>41</v>
       </c>
       <c r="D151" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E151" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="F151" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -12778,19 +12989,19 @@
         <v>7</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C152" t="s">
         <v>42</v>
       </c>
       <c r="D152" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E152" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="F152" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -12798,19 +13009,19 @@
         <v>7</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C153" t="s">
         <v>42</v>
       </c>
       <c r="D153" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E153" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="F153" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -12818,19 +13029,19 @@
         <v>7</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C154" t="s">
         <v>42</v>
       </c>
       <c r="D154" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E154" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F154" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -12838,19 +13049,19 @@
         <v>7</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C155" t="s">
         <v>42</v>
       </c>
       <c r="D155" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E155" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F155" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -12858,19 +13069,19 @@
         <v>7</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C156" t="s">
         <v>42</v>
       </c>
       <c r="D156" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E156" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F156" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -12884,13 +13095,13 @@
         <v>43</v>
       </c>
       <c r="D157" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E157" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="F157" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -12904,13 +13115,13 @@
         <v>43</v>
       </c>
       <c r="D158" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E158" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="F158" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -12924,13 +13135,13 @@
         <v>43</v>
       </c>
       <c r="D159" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E159" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="F159" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -12944,13 +13155,13 @@
         <v>43</v>
       </c>
       <c r="D160" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E160" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F160" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -12964,13 +13175,13 @@
         <v>43</v>
       </c>
       <c r="D161" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E161" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="F161" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -12984,13 +13195,13 @@
         <v>44</v>
       </c>
       <c r="D162" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E162" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="F162" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -13004,13 +13215,13 @@
         <v>44</v>
       </c>
       <c r="D163" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E163" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="F163" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -13024,13 +13235,13 @@
         <v>44</v>
       </c>
       <c r="D164" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E164" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="F164" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -13044,13 +13255,13 @@
         <v>44</v>
       </c>
       <c r="D165" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E165" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="F165" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -13064,13 +13275,13 @@
         <v>44</v>
       </c>
       <c r="D166" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E166" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F166" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -13078,19 +13289,19 @@
         <v>7</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C167" t="s">
         <v>45</v>
       </c>
       <c r="D167" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E167" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="F167" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -13098,19 +13309,19 @@
         <v>7</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C168" t="s">
         <v>45</v>
       </c>
       <c r="D168" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E168" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="F168" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -13118,19 +13329,19 @@
         <v>7</v>
       </c>
       <c r="B169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C169" t="s">
         <v>45</v>
       </c>
       <c r="D169" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E169" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="F169" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -13138,19 +13349,19 @@
         <v>7</v>
       </c>
       <c r="B170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C170" t="s">
         <v>45</v>
       </c>
       <c r="D170" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E170" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="F170" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -13158,19 +13369,19 @@
         <v>7</v>
       </c>
       <c r="B171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C171" t="s">
         <v>45</v>
       </c>
       <c r="D171" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E171" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="F171" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -13178,19 +13389,19 @@
         <v>7</v>
       </c>
       <c r="B172" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C172" t="s">
         <v>46</v>
       </c>
       <c r="D172" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E172" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="F172" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -13198,19 +13409,19 @@
         <v>7</v>
       </c>
       <c r="B173" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C173" t="s">
         <v>46</v>
       </c>
       <c r="D173" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E173" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F173" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -13218,19 +13429,19 @@
         <v>7</v>
       </c>
       <c r="B174" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C174" t="s">
         <v>46</v>
       </c>
       <c r="D174" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E174" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="F174" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -13238,19 +13449,19 @@
         <v>7</v>
       </c>
       <c r="B175" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C175" t="s">
         <v>46</v>
       </c>
       <c r="D175" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E175" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="F175" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -13258,19 +13469,19 @@
         <v>7</v>
       </c>
       <c r="B176" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C176" t="s">
         <v>46</v>
       </c>
       <c r="D176" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E176" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F176" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -13284,13 +13495,13 @@
         <v>47</v>
       </c>
       <c r="D177" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E177" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F177" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -13304,13 +13515,13 @@
         <v>47</v>
       </c>
       <c r="D178" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E178" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="F178" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -13324,13 +13535,13 @@
         <v>47</v>
       </c>
       <c r="D179" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E179" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="F179" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -13344,13 +13555,13 @@
         <v>47</v>
       </c>
       <c r="D180" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E180" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="F180" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -13364,13 +13575,13 @@
         <v>47</v>
       </c>
       <c r="D181" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E181" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="F181" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -13384,13 +13595,13 @@
         <v>48</v>
       </c>
       <c r="D182" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E182" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="F182" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -13404,13 +13615,13 @@
         <v>48</v>
       </c>
       <c r="D183" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E183" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="F183" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -13424,13 +13635,13 @@
         <v>48</v>
       </c>
       <c r="D184" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E184" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="F184" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -13444,13 +13655,13 @@
         <v>48</v>
       </c>
       <c r="D185" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E185" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="F185" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -13464,13 +13675,13 @@
         <v>48</v>
       </c>
       <c r="D186" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E186" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="F186" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -13484,13 +13695,13 @@
         <v>49</v>
       </c>
       <c r="D187" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E187" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="F187" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -13504,13 +13715,13 @@
         <v>49</v>
       </c>
       <c r="D188" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E188" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F188" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -13524,13 +13735,13 @@
         <v>49</v>
       </c>
       <c r="D189" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E189" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="F189" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -13544,13 +13755,13 @@
         <v>49</v>
       </c>
       <c r="D190" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E190" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="F190" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -13564,13 +13775,13 @@
         <v>49</v>
       </c>
       <c r="D191" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E191" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="F191" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -13584,13 +13795,13 @@
         <v>50</v>
       </c>
       <c r="D192" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E192" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="F192" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -13604,13 +13815,13 @@
         <v>50</v>
       </c>
       <c r="D193" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E193" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="F193" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -13624,13 +13835,13 @@
         <v>50</v>
       </c>
       <c r="D194" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E194" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="F194" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -13644,13 +13855,13 @@
         <v>50</v>
       </c>
       <c r="D195" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E195" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="F195" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -13664,13 +13875,13 @@
         <v>50</v>
       </c>
       <c r="D196" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E196" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="F196" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -13684,13 +13895,13 @@
         <v>51</v>
       </c>
       <c r="D197" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E197" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="F197" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -13704,13 +13915,13 @@
         <v>51</v>
       </c>
       <c r="D198" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E198" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="F198" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -13724,13 +13935,13 @@
         <v>51</v>
       </c>
       <c r="D199" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E199" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="F199" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -13744,13 +13955,13 @@
         <v>51</v>
       </c>
       <c r="D200" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E200" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F200" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -13764,13 +13975,13 @@
         <v>51</v>
       </c>
       <c r="D201" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E201" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="F201" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -13778,19 +13989,19 @@
         <v>7</v>
       </c>
       <c r="B202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C202" t="s">
         <v>52</v>
       </c>
       <c r="D202" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E202" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="F202" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -13798,19 +14009,19 @@
         <v>7</v>
       </c>
       <c r="B203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C203" t="s">
         <v>52</v>
       </c>
       <c r="D203" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E203" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F203" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -13818,19 +14029,19 @@
         <v>7</v>
       </c>
       <c r="B204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C204" t="s">
         <v>52</v>
       </c>
       <c r="D204" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E204" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="F204" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -13838,19 +14049,19 @@
         <v>7</v>
       </c>
       <c r="B205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C205" t="s">
         <v>52</v>
       </c>
       <c r="D205" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E205" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="F205" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -13858,19 +14069,19 @@
         <v>7</v>
       </c>
       <c r="B206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C206" t="s">
         <v>52</v>
       </c>
       <c r="D206" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E206" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="F206" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -13878,19 +14089,19 @@
         <v>7</v>
       </c>
       <c r="B207" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C207" t="s">
         <v>53</v>
       </c>
       <c r="D207" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E207" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F207" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -13898,19 +14109,19 @@
         <v>7</v>
       </c>
       <c r="B208" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C208" t="s">
         <v>53</v>
       </c>
       <c r="D208" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E208" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F208" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -13918,19 +14129,19 @@
         <v>7</v>
       </c>
       <c r="B209" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C209" t="s">
         <v>53</v>
       </c>
       <c r="D209" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E209" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="F209" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -13938,19 +14149,19 @@
         <v>7</v>
       </c>
       <c r="B210" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C210" t="s">
         <v>53</v>
       </c>
       <c r="D210" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="E210" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="F210" t="s">
-        <v>649</v>
+        <v>700</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -13958,19 +14169,19 @@
         <v>7</v>
       </c>
       <c r="B211" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C211" t="s">
         <v>53</v>
       </c>
       <c r="D211" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E211" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="F211" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -13978,19 +14189,19 @@
         <v>7</v>
       </c>
       <c r="B212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C212" t="s">
         <v>54</v>
       </c>
       <c r="D212" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E212" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="F212" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -13998,19 +14209,19 @@
         <v>7</v>
       </c>
       <c r="B213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C213" t="s">
         <v>54</v>
       </c>
       <c r="D213" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E213" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="F213" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -14018,19 +14229,19 @@
         <v>7</v>
       </c>
       <c r="B214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C214" t="s">
         <v>54</v>
       </c>
       <c r="D214" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E214" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="F214" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -14038,19 +14249,19 @@
         <v>7</v>
       </c>
       <c r="B215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C215" t="s">
         <v>54</v>
       </c>
       <c r="D215" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="E215" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
       <c r="F215" t="s">
-        <v>693</v>
+        <v>665</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -14058,19 +14269,119 @@
         <v>7</v>
       </c>
       <c r="B216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C216" t="s">
         <v>54</v>
       </c>
       <c r="D216" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E216" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="F216" t="s">
-        <v>694</v>
+        <v>705</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" t="s">
+        <v>7</v>
+      </c>
+      <c r="B217" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217" t="s">
+        <v>55</v>
+      </c>
+      <c r="D217" t="s">
+        <v>270</v>
+      </c>
+      <c r="E217" t="s">
+        <v>487</v>
+      </c>
+      <c r="F217" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" t="s">
+        <v>7</v>
+      </c>
+      <c r="B218" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218" t="s">
+        <v>55</v>
+      </c>
+      <c r="D218" t="s">
+        <v>271</v>
+      </c>
+      <c r="E218" t="s">
+        <v>488</v>
+      </c>
+      <c r="F218" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" t="s">
+        <v>10</v>
+      </c>
+      <c r="C219" t="s">
+        <v>55</v>
+      </c>
+      <c r="D219" t="s">
+        <v>272</v>
+      </c>
+      <c r="E219" t="s">
+        <v>489</v>
+      </c>
+      <c r="F219" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" t="s">
+        <v>7</v>
+      </c>
+      <c r="B220" t="s">
+        <v>10</v>
+      </c>
+      <c r="C220" t="s">
+        <v>55</v>
+      </c>
+      <c r="D220" t="s">
+        <v>273</v>
+      </c>
+      <c r="E220" t="s">
+        <v>490</v>
+      </c>
+      <c r="F220" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" t="s">
+        <v>7</v>
+      </c>
+      <c r="B221" t="s">
+        <v>10</v>
+      </c>
+      <c r="C221" t="s">
+        <v>55</v>
+      </c>
+      <c r="D221" t="s">
+        <v>274</v>
+      </c>
+      <c r="E221" t="s">
+        <v>491</v>
+      </c>
+      <c r="F221" t="s">
+        <v>710</v>
       </c>
     </row>
   </sheetData>
